--- a/Data/Tables/Statistics.xlsx
+++ b/Data/Tables/Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="790"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="StatData" sheetId="16" r:id="rId1"/>
@@ -13,25 +13,12 @@
   <definedNames>
     <definedName name="B">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -132,31 +119,25 @@
     <t>STAT_TYPE_CALCULATE_SUM</t>
   </si>
   <si>
-    <t>成就2统计</t>
+    <t>成就3统计</t>
   </si>
   <si>
     <t>STAT_SYS_TYPE_ALL</t>
   </si>
   <si>
-    <t>统计道具30010的获得数量</t>
+    <t>统计道具30001的获得次数</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_ADD_ITEM</t>
+  </si>
+  <si>
+    <t>成就4统计</t>
+  </si>
+  <si>
+    <t>统计道具30010的使用次数</t>
   </si>
   <si>
     <t>STAT_EVENT_USE_ITEM</t>
-  </si>
-  <si>
-    <t>成就3统计</t>
-  </si>
-  <si>
-    <t>统计道具30001的获得次数</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_ADD_ITEM</t>
-  </si>
-  <si>
-    <t>成就4统计</t>
-  </si>
-  <si>
-    <t>统计道具30010的使用次数</t>
   </si>
   <si>
     <t>架子鼓统计</t>
@@ -426,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -464,6 +445,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -477,6 +486,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,21 +533,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,28 +583,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +634,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -665,13 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +712,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -701,18 +736,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -725,31 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,19 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,12 +791,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,6 +827,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,21 +875,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,148 +933,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,52 +1119,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1667,14 +1648,14 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08333333333333" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.08333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.58333333333333" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.0833333333333" style="5" customWidth="1"/>
@@ -1736,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="13.2" spans="1:13">
+    <row r="2" s="5" customFormat="1" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1820,28 +1801,37 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="5">
-        <v>30010</v>
+        <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>31</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>32</v>
@@ -1855,19 +1845,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5">
         <v>30001</v>
@@ -1887,19 +1877,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5">
         <v>30010</v>
@@ -1919,13 +1909,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
@@ -1953,13 +1943,13 @@
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -1979,13 +1969,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2005,13 +1995,13 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2031,13 +2021,13 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2057,13 +2047,13 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2083,13 +2073,13 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2109,13 +2099,13 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2135,20 +2125,20 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
       </c>
       <c r="H15" s="10"/>
       <c r="L15" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="6" t="b">
         <v>0</v>
@@ -2161,20 +2151,20 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="10"/>
       <c r="L16" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" s="6" t="b">
         <v>0</v>
@@ -2187,20 +2177,20 @@
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="10"/>
       <c r="L17" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="6" t="b">
         <v>0</v>
@@ -2213,20 +2203,20 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
       </c>
       <c r="H18" s="10"/>
       <c r="L18" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M18" s="6" t="b">
         <v>0</v>
@@ -2239,20 +2229,20 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
       </c>
       <c r="H19" s="10"/>
       <c r="L19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M19" s="6" t="b">
         <v>0</v>
@@ -2265,20 +2255,20 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
       </c>
       <c r="H20" s="10"/>
       <c r="L20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M20" s="6" t="b">
         <v>0</v>
@@ -2291,20 +2281,20 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
       </c>
       <c r="H21" s="10"/>
       <c r="L21" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="6" t="b">
         <v>0</v>
@@ -2317,20 +2307,20 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5">
         <v>2</v>
       </c>
       <c r="H22" s="10"/>
       <c r="L22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M22" s="6" t="b">
         <v>0</v>
@@ -2343,20 +2333,20 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="5">
         <v>2</v>
       </c>
       <c r="H23" s="10"/>
       <c r="L23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M23" s="6" t="b">
         <v>0</v>
@@ -2369,20 +2359,20 @@
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" s="5">
         <v>2</v>
       </c>
       <c r="H24" s="10"/>
       <c r="L24" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M24" s="6" t="b">
         <v>0</v>
@@ -2395,20 +2385,20 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="5">
         <v>2</v>
       </c>
       <c r="H25" s="10"/>
       <c r="L25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M25" s="6" t="b">
         <v>0</v>
@@ -2421,20 +2411,20 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="5">
         <v>2</v>
       </c>
       <c r="H26" s="10"/>
       <c r="L26" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M26" s="6" t="b">
         <v>0</v>
@@ -2447,20 +2437,20 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="5">
         <v>3</v>
       </c>
       <c r="H27" s="10"/>
       <c r="L27" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="6" t="b">
         <v>0</v>
@@ -2473,20 +2463,20 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G28" s="5">
         <v>3</v>
       </c>
       <c r="H28" s="10"/>
       <c r="L28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M28" s="6" t="b">
         <v>0</v>
@@ -2499,20 +2489,20 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G29" s="5">
         <v>3</v>
       </c>
       <c r="H29" s="10"/>
       <c r="L29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M29" s="6" t="b">
         <v>0</v>
@@ -2525,20 +2515,20 @@
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5">
         <v>3</v>
       </c>
       <c r="H30" s="10"/>
       <c r="L30" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M30" s="6" t="b">
         <v>0</v>
@@ -2551,20 +2541,20 @@
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G31" s="5">
         <v>3</v>
       </c>
       <c r="H31" s="10"/>
       <c r="L31" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M31" s="6" t="b">
         <v>0</v>
@@ -2577,20 +2567,20 @@
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32" s="5">
         <v>3</v>
       </c>
       <c r="H32" s="10"/>
       <c r="L32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M32" s="6" t="b">
         <v>0</v>
@@ -2603,20 +2593,20 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" s="5">
         <v>4</v>
       </c>
       <c r="H33" s="10"/>
       <c r="L33" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="6" t="b">
         <v>0</v>
@@ -2629,20 +2619,20 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="5">
         <v>4</v>
       </c>
       <c r="H34" s="10"/>
       <c r="L34" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M34" s="6" t="b">
         <v>0</v>
@@ -2655,20 +2645,20 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G35" s="5">
         <v>4</v>
       </c>
       <c r="H35" s="10"/>
       <c r="L35" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M35" s="6" t="b">
         <v>0</v>
@@ -2681,20 +2671,20 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G36" s="5">
         <v>4</v>
       </c>
       <c r="H36" s="10"/>
       <c r="L36" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M36" s="6" t="b">
         <v>0</v>
@@ -2707,20 +2697,20 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" s="5">
         <v>4</v>
       </c>
       <c r="H37" s="10"/>
       <c r="L37" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M37" s="6" t="b">
         <v>0</v>
@@ -2733,20 +2723,20 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G38" s="5">
         <v>4</v>
       </c>
       <c r="H38" s="10"/>
       <c r="L38" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M38" s="6" t="b">
         <v>0</v>
@@ -2759,20 +2749,20 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G39" s="5">
         <v>5</v>
       </c>
       <c r="H39" s="10"/>
       <c r="L39" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M39" s="6" t="b">
         <v>0</v>
@@ -2785,20 +2775,20 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G40" s="5">
         <v>5</v>
       </c>
       <c r="H40" s="10"/>
       <c r="L40" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M40" s="6" t="b">
         <v>0</v>
@@ -2811,20 +2801,20 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G41" s="5">
         <v>5</v>
       </c>
       <c r="H41" s="10"/>
       <c r="L41" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M41" s="6" t="b">
         <v>0</v>
@@ -2837,20 +2827,20 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G42" s="5">
         <v>5</v>
       </c>
       <c r="H42" s="10"/>
       <c r="L42" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M42" s="6" t="b">
         <v>0</v>
@@ -2863,20 +2853,20 @@
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G43" s="5">
         <v>5</v>
       </c>
       <c r="H43" s="10"/>
       <c r="L43" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M43" s="6" t="b">
         <v>0</v>
@@ -2889,20 +2879,20 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G44" s="5">
         <v>5</v>
       </c>
       <c r="H44" s="10"/>
       <c r="L44" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M44" s="6" t="b">
         <v>0</v>
@@ -2915,20 +2905,20 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G45" s="5">
         <v>101</v>
       </c>
       <c r="H45" s="10"/>
       <c r="L45" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="6" t="b">
         <v>0</v>
@@ -2941,20 +2931,20 @@
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G46" s="5">
         <v>102</v>
       </c>
       <c r="H46" s="10"/>
       <c r="L46" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M46" s="6" t="b">
         <v>0</v>
@@ -2967,20 +2957,20 @@
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G47" s="5">
         <v>103</v>
       </c>
       <c r="H47" s="10"/>
       <c r="L47" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M47" s="6" t="b">
         <v>0</v>
@@ -2993,20 +2983,20 @@
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G48" s="5">
         <v>104</v>
       </c>
       <c r="H48" s="10"/>
       <c r="L48" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M48" s="6" t="b">
         <v>0</v>
@@ -3019,20 +3009,20 @@
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G49" s="5">
         <v>105</v>
       </c>
       <c r="H49" s="10"/>
       <c r="L49" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M49" s="6" t="b">
         <v>0</v>
@@ -3045,20 +3035,20 @@
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G50" s="5">
         <v>106</v>
       </c>
       <c r="H50" s="10"/>
       <c r="L50" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M50" s="6" t="b">
         <v>0</v>
@@ -3071,20 +3061,20 @@
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G51" s="5">
         <v>107</v>
       </c>
       <c r="H51" s="10"/>
       <c r="L51" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M51" s="6" t="b">
         <v>0</v>
@@ -3097,20 +3087,20 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G52" s="5">
         <v>108</v>
       </c>
       <c r="H52" s="10"/>
       <c r="L52" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M52" s="6" t="b">
         <v>0</v>
@@ -3135,7 +3125,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -3151,19 +3141,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -3186,7 +3176,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -3198,7 +3188,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3210,13 +3200,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3226,29 +3216,29 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3258,10 +3248,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3272,51 +3262,51 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3325,36 +3315,36 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3366,7 +3356,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3375,7 +3365,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3384,39 +3374,39 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3428,7 +3418,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -3438,7 +3428,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3453,29 +3443,29 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
